--- a/doc/y8664.xlsx
+++ b/doc/y8664.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9155"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">rrmovq </t>
     </r>
     <r>
@@ -110,6 +117,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">irmovq </t>
     </r>
     <r>
@@ -132,6 +146,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">rmmovq </t>
     </r>
     <r>
@@ -151,6 +172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">mrmovq </t>
     </r>
     <r>
@@ -167,6 +195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">addq </t>
     </r>
     <r>
@@ -183,6 +218,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">subq </t>
     </r>
     <r>
@@ -199,6 +241,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">andq </t>
     </r>
     <r>
@@ -215,6 +264,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">xorq </t>
     </r>
     <r>
@@ -231,6 +287,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">jmp </t>
     </r>
     <r>
@@ -250,6 +313,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">jle </t>
     </r>
     <r>
@@ -266,6 +336,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>jl</t>
     </r>
     <r>
@@ -282,6 +359,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">je </t>
     </r>
     <r>
@@ -298,6 +382,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">jne </t>
     </r>
     <r>
@@ -314,6 +405,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">jqe </t>
     </r>
     <r>
@@ -330,6 +428,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">jq </t>
     </r>
     <r>
@@ -346,6 +451,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cmovle </t>
     </r>
     <r>
@@ -362,6 +474,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cmovl </t>
     </r>
     <r>
@@ -378,6 +497,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cmove </t>
     </r>
     <r>
@@ -394,6 +520,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cmovne </t>
     </r>
     <r>
@@ -410,6 +543,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cmovge </t>
     </r>
     <r>
@@ -426,6 +566,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cmovg </t>
     </r>
     <r>
@@ -442,6 +589,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">call </t>
     </r>
     <r>
@@ -461,6 +615,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">pushq </t>
     </r>
     <r>
@@ -480,6 +641,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">popq </t>
     </r>
     <r>
@@ -556,7 +724,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,13 +734,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -724,18 +885,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1082,48 +1237,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,101 +1291,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,13 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1611,8 +1760,8 @@
   <sheetPr/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:S14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1722,7 +1871,7 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
@@ -1745,7 +1894,7 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3">
@@ -1778,7 +1927,7 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3">
@@ -1813,7 +1962,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3">
@@ -1848,7 +1997,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="3">
@@ -1883,7 +2032,7 @@
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3">
@@ -1916,7 +2065,7 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3">
@@ -1949,7 +2098,7 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="3">
@@ -1982,7 +2131,7 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3">
@@ -2015,224 +2164,224 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>7</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>7</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>7</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>5</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>7</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3">
@@ -2265,7 +2414,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="3">
@@ -2298,7 +2447,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="3">
@@ -2331,7 +2480,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="3">
@@ -2364,7 +2513,7 @@
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="3">
@@ -2397,7 +2546,7 @@
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="3">
@@ -2430,7 +2579,7 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="3">
@@ -2439,24 +2588,24 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
@@ -2490,7 +2639,7 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2523,7 +2672,7 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2556,27 +2705,27 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2" t="s">
@@ -2722,18 +2871,18 @@
       <c r="A37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">

--- a/doc/y8664.xlsx
+++ b/doc/y8664.xlsx
@@ -16,77 +16,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>字节分布</t>
   </si>
   <si>
+    <t>0H</t>
+  </si>
+  <si>
     <t>0L</t>
   </si>
   <si>
-    <t>OH</t>
+    <t>1H</t>
   </si>
   <si>
     <t>1L</t>
   </si>
   <si>
-    <t>1H</t>
+    <t>2H</t>
   </si>
   <si>
     <t>2L</t>
   </si>
   <si>
-    <t>2H</t>
+    <t>3H</t>
   </si>
   <si>
     <t>3L</t>
   </si>
   <si>
-    <t>3H</t>
+    <t>4H</t>
   </si>
   <si>
     <t>4L</t>
   </si>
   <si>
-    <t>4H</t>
+    <t>5H</t>
   </si>
   <si>
     <t>5L</t>
   </si>
   <si>
-    <t>5H</t>
+    <t>6H</t>
   </si>
   <si>
     <t>6L</t>
   </si>
   <si>
-    <t>6H</t>
+    <t>7H</t>
   </si>
   <si>
     <t>7L</t>
   </si>
   <si>
-    <t>7H</t>
+    <t>8H</t>
   </si>
   <si>
     <t>8L</t>
   </si>
   <si>
-    <t>8H</t>
+    <t>9H</t>
   </si>
   <si>
     <t>9L</t>
   </si>
   <si>
-    <t>9H</t>
+    <t>备注</t>
   </si>
   <si>
     <t>halt</t>
   </si>
   <si>
+    <t>程序停止</t>
+  </si>
+  <si>
     <t>nop</t>
   </si>
   <si>
+    <t>空指令</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -116,6 +125,9 @@
     <t>rB</t>
   </si>
   <si>
+    <t>将寄存器rA的值传入到寄存器rB中</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -145,6 +157,9 @@
     <t>V</t>
   </si>
   <si>
+    <t>将立即数V写入到寄存器rB中</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -171,6 +186,9 @@
     <t>D</t>
   </si>
   <si>
+    <t>将寄存器rA的值写入到内存dest中</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -194,6 +212,9 @@
     </r>
   </si>
   <si>
+    <t>将内存dest的值写入到寄存器rB中</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -217,6 +238,9 @@
     </r>
   </si>
   <si>
+    <t>寄存器rA和rB的值相加并将结果写入到rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -240,6 +264,9 @@
     </r>
   </si>
   <si>
+    <t>寄存器rA和rB的值相减并将结果写入到rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -263,6 +290,9 @@
     </r>
   </si>
   <si>
+    <t>寄存器rA和rB的值相与并将结果写入到rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -286,6 +316,9 @@
     </r>
   </si>
   <si>
+    <t>寄存器rA和rB的值相异或并将结果写入到rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -312,6 +345,9 @@
     <t>Dest</t>
   </si>
   <si>
+    <t>跳转到特定的位置</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -336,6 +372,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">跳转条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZF = 1 || SF != OF</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -359,6 +411,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">跳转条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SF != OF</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -382,6 +450,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">跳转条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZF = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -405,6 +489,22 @@
   </si>
   <si>
     <r>
+      <t>跳转条件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ZF = 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -428,6 +528,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">跳转条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SF = OF</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -451,6 +567,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">跳转条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZF = 0 &amp;&amp; SF = OF</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -473,6 +605,9 @@
     </r>
   </si>
   <si>
+    <t>rA &lt;= rB 将rA的值传递给rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -496,6 +631,9 @@
     </r>
   </si>
   <si>
+    <t>rA &lt; rB 将rA的值传递给rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -519,6 +657,9 @@
     </r>
   </si>
   <si>
+    <t>rA == rB 将rA的值传递给rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -542,6 +683,9 @@
     </r>
   </si>
   <si>
+    <t>rA != rB 将rA的值传递给rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -565,6 +709,9 @@
     </r>
   </si>
   <si>
+    <t>rA &gt;= rB 将rA的值传递给rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -588,6 +735,9 @@
     </r>
   </si>
   <si>
+    <t>rA &gt; rB 将rA的值传递给rB</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -611,9 +761,15 @@
     </r>
   </si>
   <si>
+    <t>子过程调用，将pc压入栈中，并跳转到对应位置</t>
+  </si>
+  <si>
     <t>ret</t>
   </si>
   <si>
+    <t>从子过程返回，将栈顶元素弹出赋值给pc</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -640,6 +796,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>将rA的值压入栈中</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -666,6 +825,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>将栈中的值弹出到rA</t>
+  </si>
+  <si>
     <t>备注: Y86-64指令集架构指令长度为1到10个字节不等，每条指令必须含有一个字节的指令指示符，可能有一个字节的寄存器指示符以及八个字节的常数值</t>
   </si>
   <si>
@@ -681,6 +843,9 @@
     <t>OF（溢出）</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>状态码STAT</t>
   </si>
   <si>
@@ -697,9 +862,6 @@
   </si>
   <si>
     <t>值</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>正常操作</t>
@@ -1382,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,6 +1571,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1758,19 +1929,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.5740740740741" customWidth="1"/>
     <col min="2" max="2" width="9.80555555555556" customWidth="1"/>
+    <col min="22" max="22" width="46.3981481481481" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,10 +2006,13 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -1863,10 +2038,13 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1892,10 +2070,13 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1904,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1925,10 +2106,13 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -1937,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1960,10 +2144,13 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -1972,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1995,10 +2182,13 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -2007,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2030,10 +2220,13 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -2042,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2063,10 +2256,13 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -2075,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2096,10 +2292,13 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
@@ -2108,10 +2307,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2129,10 +2328,13 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
@@ -2141,10 +2343,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2162,10 +2364,13 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -2174,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2193,10 +2398,13 @@
       <c r="S12" s="5"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5">
         <v>7</v>
@@ -2205,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2224,10 +2432,13 @@
       <c r="S13" s="5"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5">
         <v>7</v>
@@ -2236,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2255,10 +2466,13 @@
       <c r="S14" s="5"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5">
         <v>7</v>
@@ -2267,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2286,10 +2500,13 @@
       <c r="S15" s="5"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5">
         <v>7</v>
@@ -2298,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2317,10 +2534,13 @@
       <c r="S16" s="5"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5">
         <v>7</v>
@@ -2329,7 +2549,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2348,10 +2568,13 @@
       <c r="S17" s="5"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5">
         <v>7</v>
@@ -2360,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2379,10 +2602,13 @@
       <c r="S18" s="5"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -2391,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2412,10 +2638,13 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -2424,10 +2653,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2445,10 +2674,13 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -2457,10 +2689,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2478,10 +2710,13 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -2490,10 +2725,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2511,10 +2746,13 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -2523,10 +2761,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2544,10 +2782,13 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2556,10 +2797,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2577,10 +2818,13 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
@@ -2589,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2608,10 +2852,13 @@
       <c r="S25" s="5"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3">
         <v>9</v>
@@ -2637,22 +2884,25 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2670,22 +2920,25 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2703,6 +2956,9 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
+      <c r="V28" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="6"/>
@@ -2729,7 +2985,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2867,47 +3123,50 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:22">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G37" s="8"/>
+      <c r="V37" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -2928,22 +3187,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I41" s="2"/>
     </row>

--- a/doc/y8664.xlsx
+++ b/doc/y8664.xlsx
@@ -372,6 +372,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">跳转条件 </t>
     </r>
     <r>
@@ -411,6 +418,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">跳转条件 </t>
     </r>
     <r>
@@ -450,6 +464,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">跳转条件 </t>
     </r>
     <r>
@@ -489,6 +510,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>跳转条件</t>
     </r>
     <r>
@@ -528,6 +556,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">跳转条件 </t>
     </r>
     <r>
@@ -567,6 +602,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">跳转条件 </t>
     </r>
     <r>
@@ -605,7 +647,20 @@
     </r>
   </si>
   <si>
-    <t>rA &lt;= rB 将rA的值传递给rB</t>
+    <r>
+      <t xml:space="preserve">传送条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZF = 1 || SF != OF</t>
+    </r>
   </si>
   <si>
     <r>
@@ -631,7 +686,20 @@
     </r>
   </si>
   <si>
-    <t>rA &lt; rB 将rA的值传递给rB</t>
+    <r>
+      <t xml:space="preserve">传送条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SF != OF</t>
+    </r>
   </si>
   <si>
     <r>
@@ -657,7 +725,20 @@
     </r>
   </si>
   <si>
-    <t>rA == rB 将rA的值传递给rB</t>
+    <r>
+      <t xml:space="preserve">传送条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZF = 1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -683,7 +764,20 @@
     </r>
   </si>
   <si>
-    <t>rA != rB 将rA的值传递给rB</t>
+    <r>
+      <t>传送条件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ZF = 0</t>
+    </r>
   </si>
   <si>
     <r>
@@ -709,7 +803,20 @@
     </r>
   </si>
   <si>
-    <t>rA &gt;= rB 将rA的值传递给rB</t>
+    <r>
+      <t xml:space="preserve">传送条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SF = OF</t>
+    </r>
   </si>
   <si>
     <r>
@@ -735,7 +842,20 @@
     </r>
   </si>
   <si>
-    <t>rA &gt; rB 将rA的值传递给rB</t>
+    <r>
+      <t xml:space="preserve">传送条件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZF = 0 &amp;&amp; SF = OF</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1932,7 +2052,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2638,7 +2758,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2674,7 +2794,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="10" t="s">
+      <c r="V20" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2710,7 +2830,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="10" t="s">
+      <c r="V21" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2746,7 +2866,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="10" t="s">
+      <c r="V22" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2782,7 +2902,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2818,7 +2938,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="10" t="s">
+      <c r="V24" s="11" t="s">
         <v>73</v>
       </c>
     </row>
